--- a/Excel/cargo.xlsx
+++ b/Excel/cargo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\BD6\projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugo/Desktop/school-uni-bd6/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{812DC0CC-4355-4833-9DBE-AB29F1F59392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C97EE86-8B02-5847-B3C7-6FEC86A7B1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{893B05A0-E8CD-47E6-8CBB-CA4954A9E3D0}"/>
+    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="19100" xr2:uid="{893B05A0-E8CD-47E6-8CBB-CA4954A9E3D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -398,15 +398,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F958FDC-8D41-4988-847D-F64B42B1A651}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -418,6 +418,272 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/cargo.xlsx
+++ b/Excel/cargo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugo/Desktop/school-uni-bd6/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C97EE86-8B02-5847-B3C7-6FEC86A7B1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88F4EB7-7447-BA4C-B64F-5ADF29573F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="19100" xr2:uid="{893B05A0-E8CD-47E6-8CBB-CA4954A9E3D0}"/>
   </bookViews>
@@ -398,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F958FDC-8D41-4988-847D-F64B42B1A651}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -431,7 +431,7 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -445,7 +445,7 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -459,7 +459,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -473,7 +473,7 @@
         <v>26</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -487,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -501,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -515,7 +515,7 @@
         <v>24</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -529,7 +529,7 @@
         <v>19</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -543,7 +543,7 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -557,7 +557,7 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -571,7 +571,7 @@
         <v>20</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -599,7 +599,7 @@
         <v>15</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -607,13 +607,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>17</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -627,7 +627,7 @@
         <v>5</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -641,7 +641,7 @@
         <v>6</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -655,7 +655,7 @@
         <v>18</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -663,27 +663,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>9</v>
-      </c>
-      <c r="D20">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/cargo.xlsx
+++ b/Excel/cargo.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugo/Desktop/school-uni-bd6/Excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88F4EB7-7447-BA4C-B64F-5ADF29573F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="19100" xr2:uid="{893B05A0-E8CD-47E6-8CBB-CA4954A9E3D0}"/>
+    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="14620"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -390,21 +384,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F958FDC-8D41-4988-847D-F64B42B1A651}">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -672,6 +666,34 @@
         <v>10</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
